--- a/Excel Files/Bill Of Materials.xlsx
+++ b/Excel Files/Bill Of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\Projects\EMGingers-control\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFC7A7-9C18-4657-81DB-88EE69B70E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0E42B-E8A1-48EE-8D53-5964B5CA24AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -160,6 +160,63 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Germany-Imported-Nylon-Fishing-Line-200m-with-Strong-Pulling-Force-Soft-Wear-resistant-Fast-Cutting-Water-Invisible-Fishing-Line-Main-Line-Sub-Line-i.177801832.6676420502?ads_keyword=fishing&amp;adsid=2511648&amp;campaignid=1317397&amp;position=2</t>
+  </si>
+  <si>
+    <t>Fishing String</t>
+  </si>
+  <si>
+    <t>To pull finger</t>
+  </si>
+  <si>
+    <t>Acts as input</t>
+  </si>
+  <si>
+    <t>To assemble items</t>
+  </si>
+  <si>
+    <t>To power and control functions</t>
+  </si>
+  <si>
+    <t>Thin wires to connect electronics</t>
+  </si>
+  <si>
+    <t>Thicker wires to carry high current</t>
+  </si>
+  <si>
+    <t>To make circuits</t>
+  </si>
+  <si>
+    <t>Lithium Batteries</t>
+  </si>
+  <si>
+    <t>Charge Controllers</t>
+  </si>
+  <si>
+    <t>Buck/Boost converter</t>
+  </si>
+  <si>
+    <t>Power the system</t>
+  </si>
+  <si>
+    <t>Charge discharge and protect batteries</t>
+  </si>
+  <si>
+    <t>Provide voltage levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors (XT-60)/JST </t>
+  </si>
+  <si>
+    <t>To connect various items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Pins </t>
+  </si>
+  <si>
+    <t>Connect wires</t>
   </si>
 </sst>
 </file>
@@ -532,7 +589,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,12 +602,12 @@
     <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="227.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -602,11 +659,11 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -626,11 +683,11 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -650,11 +707,11 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -671,11 +728,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -692,11 +749,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -710,11 +767,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -728,11 +785,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -749,8 +806,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -767,8 +827,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -785,8 +848,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -800,8 +866,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -815,8 +884,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -830,11 +902,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -848,11 +920,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -866,8 +938,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -881,8 +956,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -896,62 +974,122 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -960,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -969,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -978,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -987,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -996,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1005,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1014,787 +1152,787 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F48" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F54" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F62" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" s="1">
         <f t="shared" ref="F67:F130" si="1">D67*E67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F69" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F70" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F71" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F72" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F73" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F74" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F75" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F76" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F77" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F78" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F79" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F80" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F85" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F94" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F101" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F102" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F103" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F109" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F113" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F114" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F115" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F116" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F117" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F118" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F119" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F120" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F121" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F122" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F123" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F124" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F125" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F126" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F128" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F129" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F130" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F131" s="1">
         <f t="shared" ref="F131:F162" si="2">D131*E131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F132" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F133" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F134" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F135" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F136" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F137" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F138" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F139" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F140" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F141" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F142" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F143" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F144" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F145" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F146" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F147" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F148" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F149" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F150" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F151" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F152" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F153" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F154" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F155" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F156" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F157" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F158" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F159" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F160" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F161" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="6:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F162" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1810,5 +1948,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Files/Bill Of Materials.xlsx
+++ b/Excel Files/Bill Of Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\Projects\EMGingers-control\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0E42B-E8A1-48EE-8D53-5964B5CA24AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FAFCD-0F9D-4D97-826F-59AC869B3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Connect wires</t>
+  </si>
+  <si>
+    <t>Worm Gear Motor With encoder</t>
+  </si>
+  <si>
+    <t>Self locking with position data, very useful</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Torque-Reduction-Encoder-Self-locking-Output/dp/B073S65J25</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -267,10 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,21 +604,21 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="227.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="227.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -632,10 +647,10 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -659,7 +674,7 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -683,7 +698,7 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -707,8 +722,11 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -728,7 +746,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -749,7 +767,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -767,7 +785,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -785,7 +803,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -806,7 +824,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -827,7 +845,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -848,7 +866,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -866,7 +884,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -884,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -902,7 +920,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -920,7 +938,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -938,7 +956,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -956,7 +974,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -974,7 +992,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -992,10 +1010,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1013,7 +1031,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1031,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1049,7 +1067,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1067,7 +1085,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1085,7 +1103,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1093,9 +1111,21 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">

--- a/Excel Files/Bill Of Materials.xlsx
+++ b/Excel Files/Bill Of Materials.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\Projects\EMGingers-control\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FAFCD-0F9D-4D97-826F-59AC869B3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C90E28-04BB-4B03-B71F-4023D5EB6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$162</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -66,9 +69,6 @@
     <t>WaveShare 7 Inch Touch LCD</t>
   </si>
   <si>
-    <t>Pending Approval</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -228,7 +228,10 @@
     <t>https://www.amazon.com/Torque-Reduction-Encoder-Self-locking-Output/dp/B073S65J25</t>
   </si>
   <si>
-    <t>Links</t>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>Controls motors</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -648,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -662,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -671,11 +674,8 @@
         <f>D2*E2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -695,11 +695,8 @@
         <f t="shared" ref="F3:F66" si="0">D3*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -710,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -719,14 +716,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -734,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -747,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -755,10 +746,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -768,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -776,17 +767,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -794,17 +785,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -812,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -825,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -833,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -846,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -854,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -867,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -875,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -885,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -893,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -911,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -921,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -929,17 +920,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -947,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -957,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -965,17 +956,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -983,17 +974,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,20 +992,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1022,17 +1013,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1040,17 +1031,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,17 +1049,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1076,17 +1067,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1094,17 +1085,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,29 +1103,38 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1969,6 +1969,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J162" xr:uid="{F8182256-954F-4F59-85A5-CC571E5460A2}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{4E45BFA1-C9B7-4C9B-9523-A7F2396EF744}">
       <formula1>"Integrated Circuits,Hardware,Computer,Materials,Micro Controller,Electronics,Actuators "</formula1>
